--- a/fontes_db/fornecedores_pref/Eleições 2014 - Despesas Vice-Prefeito - Campanha Deputado Federal.xlsx
+++ b/fontes_db/fornecedores_pref/Eleições 2014 - Despesas Vice-Prefeito - Campanha Deputado Federal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornecedores_2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornec_pref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D91C31C-E522-2A42-BFCB-A1EC7F070B84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC96799-C7BF-D54A-AB8B-50A20E311EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{90B4C5EF-C750-4FAB-A216-569A8C490623}"/>
   </bookViews>
@@ -26,8 +26,8 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId8"/>
-    <pivotCache cacheId="21" r:id="rId9"/>
+    <pivotCache cacheId="3" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="125">
   <si>
     <t>Cód. Eleição</t>
   </si>
@@ -426,6 +426,9 @@
   </si>
   <si>
     <t>CNPJ</t>
+  </si>
+  <si>
+    <t>DESPESAS BANCÁRIAS</t>
   </si>
 </sst>
 </file>
@@ -3157,7 +3160,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F25E5E4-D2AF-4A27-B6A0-509A0364F567}" name="Tabela dinâmica1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1F25E5E4-D2AF-4A27-B6A0-509A0364F567}" name="Tabela dinâmica1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:E22" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="24">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -3352,7 +3355,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{936579D5-7115-42FC-B608-E371687382C1}" name="Tabela dinâmica2" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{936579D5-7115-42FC-B608-E371687382C1}" name="Tabela dinâmica2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
   <location ref="A1:E20" firstHeaderRow="1" firstDataRow="1" firstDataCol="4"/>
   <pivotFields count="24">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -11155,7 +11158,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -11195,7 +11198,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
+        <v>124</v>
       </c>
       <c r="E2">
         <v>1.1331825256963802E-3</v>

--- a/fontes_db/fornecedores_pref/Eleições 2014 - Despesas Vice-Prefeito - Campanha Deputado Federal.xlsx
+++ b/fontes_db/fornecedores_pref/Eleições 2014 - Despesas Vice-Prefeito - Campanha Deputado Federal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornec_pref/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renatoaranha/PycharmProjects/portaltransparenciamacae/fontes_db/fornecedores_pref/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CC96799-C7BF-D54A-AB8B-50A20E311EFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA177F88-B0CD-AF4D-9F32-14073E409AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" firstSheet="2" activeTab="5" xr2:uid="{90B4C5EF-C750-4FAB-A216-569A8C490623}"/>
   </bookViews>
@@ -11157,9 +11157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A01C3D55-1348-4A44-969A-C85643903CFF}">
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
